--- a/Java_OneDay_Server_Food/DBMS/샘플- 테이블명세(2021-05-10).xlsx
+++ b/Java_OneDay_Server_Food/DBMS/샘플- 테이블명세(2021-05-10).xlsx
@@ -15,7 +15,7 @@
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
     <sheet name="제조사정보" sheetId="5" r:id="rId2"/>
     <sheet name="식품분류" sheetId="6" r:id="rId3"/>
-    <sheet name="식품분류 (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="식품섭취정보" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>f_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4357,7 +4361,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5129,7 +5133,9 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
@@ -5394,12 +5400,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Java_OneDay_Server_Food/DBMS/샘플- 테이블명세(2021-05-10).xlsx
+++ b/Java_OneDay_Server_Food/DBMS/샘플- 테이블명세(2021-05-10).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\OneDayProject\Java_OneDay_Server_Food\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\onedayproject\Java_OneDay_Server_Food\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCA7E2D-6D1D-4E5E-8B4E-3FF8BF187A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
@@ -460,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -557,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -766,6 +767,32 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -781,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -882,11 +909,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2297,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3327,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4357,11 +4390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5248,14 +5281,14 @@
       <c r="K11" s="8"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -5263,14 +5296,14 @@
       <c r="K12" s="8"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>8</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -5278,14 +5311,14 @@
       <c r="K13" s="8"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5293,14 +5326,14 @@
       <c r="K14" s="8"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -5308,14 +5341,14 @@
       <c r="K15" s="8"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>11</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -5329,8 +5362,8 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
